--- a/data/Climate_BANGKOK.xlsx
+++ b/data/Climate_BANGKOK.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryogamisu/iGEM2018/Dengue-Prediction/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryogamisu/iGEM2018/Dengue-Prediction/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{483AA0A6-B6AF-4B45-BA5A-B9ECF7917142}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{84E3A0E6-AE0A-B24C-A4B3-9FB84B357EE1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16380" activeTab="1" xr2:uid="{4B115B26-7AC3-274C-8BD5-025EFF07C07E}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16380" xr2:uid="{4B115B26-7AC3-274C-8BD5-025EFF07C07E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -458,7 +458,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C752ED00-BAD1-C547-93BF-3CF404C27BEB}">
   <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -2814,7 +2814,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{694BB69F-F3D1-D24E-822A-C7BF70661295}">
   <dimension ref="A1:L1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
